--- a/web/src/main/resources/static/excel/guide_price.xlsx
+++ b/web/src/main/resources/static/excel/guide_price.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,6 +25,14 @@
   </si>
   <si>
     <t>食品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批发价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,69 +397,66 @@
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
     </row>
   </sheetData>

--- a/web/src/main/resources/static/excel/guide_price.xlsx
+++ b/web/src/main/resources/static/excel/guide_price.xlsx
@@ -32,14 +32,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批发价</t>
+    <t>指导价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
   </numFmts>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
